--- a/Data/Processed/Angiosperms/missing_powo_ipni/Phyllanthaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Phyllanthaceae.xlsx
@@ -3069,7 +3069,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
